--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value383.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value383.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7957693869077421</v>
+        <v>2.037010908126831</v>
       </c>
       <c r="B1">
-        <v>1.24832952010214</v>
+        <v>3.403537511825562</v>
       </c>
       <c r="C1">
-        <v>1.769231487260858</v>
+        <v>2.872161626815796</v>
       </c>
       <c r="D1">
-        <v>2.116390885035684</v>
+        <v>2.122005462646484</v>
       </c>
       <c r="E1">
-        <v>2.456984166923003</v>
+        <v>1.233277559280396</v>
       </c>
     </row>
   </sheetData>
